--- a/STUDY/1. FrontEnd/4. 학습스케쥴/학습스케쥴_이승현.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/학습스케쥴_이승현.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="출석현황" sheetId="1" r:id="rId1"/>
-    <sheet name="동영상 강의" sheetId="2" r:id="rId2"/>
-    <sheet name="스케줄" sheetId="4" r:id="rId3"/>
-    <sheet name="미션클리어" sheetId="3" r:id="rId4"/>
+    <sheet name="스케줄" sheetId="4" r:id="rId2"/>
+    <sheet name="미션클리어" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 보고 있는 동영상 강좌 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,43 +66,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>오전-기술면접</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전-알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후-자바스크립트강의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후-리액트공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 문자열 내 p와 y의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do it! 리액트 프로그래밍 정석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트 설계 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIRTUALDOM 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JavaScript for Web Browser (생활코딩)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8 / 93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전-기술면접</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전-알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오후-자바스크립트강의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오후-리액트공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그래머스 - 문자열 내 p와 y의 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIRTUALDOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do it! 리액트 프로그래밍 정석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript for Web Browser (생활코딩) 8 / 93</t>
+    <t>20/93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript for Web Browser (생활코딩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 문자열 내 마음대로 정렬하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~48p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~55p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,18 +166,69 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -157,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,7 +249,25 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -514,10 +614,16 @@
       <c r="B2" s="2">
         <v>0.41041666666666665</v>
       </c>
+      <c r="C2" s="2">
+        <v>0.84027777777777779</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>44014</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.40972222222222227</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -674,240 +780,381 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="38.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.8984375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="38.8984375" customWidth="1"/>
-    <col min="4" max="4" width="43.19921875" customWidth="1"/>
-    <col min="5" max="5" width="27.09765625" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.8984375" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.19921875" customWidth="1"/>
+    <col min="7" max="7" width="6.19921875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.09765625" customWidth="1"/>
+    <col min="9" max="9" width="6.19921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>44013</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>44013</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>44014</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>44014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
         <v>44015</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+      <c r="B4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
         <v>44016</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+      <c r="B5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
         <v>44017</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+      <c r="B6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
         <v>44018</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+      <c r="B7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
         <v>44019</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+      <c r="B8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
         <v>44020</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+      <c r="B9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
         <v>44021</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+      <c r="B10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
         <v>44022</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
+      <c r="B11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
         <v>44023</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
+      <c r="B12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
         <v>44024</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
+      <c r="B13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
         <v>44025</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+      <c r="B14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
         <v>44026</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+      <c r="B15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
         <v>44027</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
+      <c r="B16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
         <v>44028</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
+      <c r="B17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
         <v>44029</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
+      <c r="B18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
         <v>44030</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
+      <c r="B19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
         <v>44031</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
+      <c r="B20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
         <v>44032</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
+      <c r="B21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
         <v>44033</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
+      <c r="B22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
         <v>44034</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
+      <c r="B23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
         <v>44035</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
+      <c r="B24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
         <v>44036</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
+      <c r="B25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
         <v>44037</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
+      <c r="B26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
         <v>44038</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
+      <c r="B27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
         <v>44039</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
+      <c r="B28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
         <v>44040</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
+      <c r="B29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
         <v>44041</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
+      <c r="B30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
         <v>44042</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1">
+      <c r="B31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="7">
         <v>44043</v>
       </c>
+      <c r="B32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -916,7 +1163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -931,25 +1178,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/STUDY/1. FrontEnd/4. 학습스케쥴/학습스케쥴_이승현.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/학습스케쥴_이승현.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="출석현황" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,15 +130,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>~48p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~55p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLEX레이아웃 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 나누어 떨어지는 숫자배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~78p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>발표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~48p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~55p</t>
+    <t>34/93</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +209,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,17 +250,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -267,8 +286,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -625,15 +644,24 @@
       <c r="B3" s="2">
         <v>0.40972222222222227</v>
       </c>
+      <c r="C3" s="2">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>44015</v>
       </c>
+      <c r="B4" s="2">
+        <v>0.40277777777777773</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>44016</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -782,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -854,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -883,20 +911,40 @@
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>44015</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="7">

--- a/STUDY/1. FrontEnd/4. 학습스케쥴/학습스케쥴_이승현.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/학습스케쥴_이승현.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>34/93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트를 다루는 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~108p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +614,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -655,6 +663,9 @@
       <c r="B4" s="2">
         <v>0.40277777777777773</v>
       </c>
+      <c r="C4" s="2">
+        <v>0.88888888888888884</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -808,26 +819,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.8984375" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" customWidth="1"/>
     <col min="3" max="3" width="6.19921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.8984375" customWidth="1"/>
+    <col min="4" max="4" width="25.09765625" customWidth="1"/>
     <col min="5" max="5" width="6.19921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.19921875" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" customWidth="1"/>
     <col min="7" max="7" width="6.19921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.09765625" customWidth="1"/>
+    <col min="8" max="8" width="22.3984375" customWidth="1"/>
     <col min="9" max="9" width="6.19921875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.09765625" customWidth="1"/>
+    <col min="11" max="11" width="6.19921875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -855,8 +868,14 @@
       <c r="I1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>44013</v>
       </c>
@@ -884,8 +903,10 @@
       <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J2" s="8"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>44014</v>
       </c>
@@ -913,11 +934,12 @@
       <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8"/>
+      <c r="L3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>44015</v>
       </c>
@@ -945,8 +967,14 @@
       <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>44016</v>
       </c>
@@ -954,8 +982,9 @@
       <c r="D5" s="8"/>
       <c r="F5" s="8"/>
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>44017</v>
       </c>
@@ -963,8 +992,9 @@
       <c r="D6" s="8"/>
       <c r="F6" s="8"/>
       <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>44018</v>
       </c>
@@ -972,8 +1002,9 @@
       <c r="D7" s="8"/>
       <c r="F7" s="8"/>
       <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>44019</v>
       </c>
@@ -981,8 +1012,9 @@
       <c r="D8" s="8"/>
       <c r="F8" s="8"/>
       <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>44020</v>
       </c>
@@ -990,8 +1022,9 @@
       <c r="D9" s="8"/>
       <c r="F9" s="8"/>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>44021</v>
       </c>
@@ -999,8 +1032,9 @@
       <c r="D10" s="8"/>
       <c r="F10" s="8"/>
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>44022</v>
       </c>
@@ -1008,8 +1042,9 @@
       <c r="D11" s="8"/>
       <c r="F11" s="8"/>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>44023</v>
       </c>
@@ -1017,8 +1052,9 @@
       <c r="D12" s="8"/>
       <c r="F12" s="8"/>
       <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>44024</v>
       </c>
@@ -1026,8 +1062,9 @@
       <c r="D13" s="8"/>
       <c r="F13" s="8"/>
       <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>44025</v>
       </c>
@@ -1035,8 +1072,9 @@
       <c r="D14" s="8"/>
       <c r="F14" s="8"/>
       <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>44026</v>
       </c>
@@ -1044,8 +1082,9 @@
       <c r="D15" s="8"/>
       <c r="F15" s="8"/>
       <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>44027</v>
       </c>
@@ -1053,8 +1092,9 @@
       <c r="D16" s="8"/>
       <c r="F16" s="8"/>
       <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>44028</v>
       </c>
@@ -1062,8 +1102,9 @@
       <c r="D17" s="8"/>
       <c r="F17" s="8"/>
       <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>44029</v>
       </c>
@@ -1071,8 +1112,9 @@
       <c r="D18" s="8"/>
       <c r="F18" s="8"/>
       <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>44030</v>
       </c>
@@ -1080,8 +1122,9 @@
       <c r="D19" s="8"/>
       <c r="F19" s="8"/>
       <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>44031</v>
       </c>
@@ -1089,8 +1132,9 @@
       <c r="D20" s="8"/>
       <c r="F20" s="8"/>
       <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>44032</v>
       </c>
@@ -1098,8 +1142,9 @@
       <c r="D21" s="8"/>
       <c r="F21" s="8"/>
       <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>44033</v>
       </c>
@@ -1107,8 +1152,9 @@
       <c r="D22" s="8"/>
       <c r="F22" s="8"/>
       <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>44034</v>
       </c>
@@ -1116,8 +1162,9 @@
       <c r="D23" s="8"/>
       <c r="F23" s="8"/>
       <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>44035</v>
       </c>
@@ -1125,8 +1172,9 @@
       <c r="D24" s="8"/>
       <c r="F24" s="8"/>
       <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>44036</v>
       </c>
@@ -1134,8 +1182,9 @@
       <c r="D25" s="8"/>
       <c r="F25" s="8"/>
       <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>44037</v>
       </c>
@@ -1143,8 +1192,9 @@
       <c r="D26" s="8"/>
       <c r="F26" s="8"/>
       <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>44038</v>
       </c>
@@ -1152,8 +1202,9 @@
       <c r="D27" s="8"/>
       <c r="F27" s="8"/>
       <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>44039</v>
       </c>
@@ -1161,8 +1212,9 @@
       <c r="D28" s="8"/>
       <c r="F28" s="8"/>
       <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>44040</v>
       </c>
@@ -1170,8 +1222,9 @@
       <c r="D29" s="8"/>
       <c r="F29" s="8"/>
       <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>44041</v>
       </c>
@@ -1179,8 +1232,9 @@
       <c r="D30" s="8"/>
       <c r="F30" s="8"/>
       <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>44042</v>
       </c>
@@ -1188,8 +1242,9 @@
       <c r="D31" s="8"/>
       <c r="F31" s="8"/>
       <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>44043</v>
       </c>
@@ -1197,12 +1252,14 @@
       <c r="D32" s="8"/>
       <c r="F32" s="8"/>
       <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C33" s="6"/>
       <c r="E33" s="6"/>
       <c r="G33" s="6"/>
       <c r="I33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/STUDY/1. FrontEnd/4. 학습스케쥴/학습스케쥴_이승현.xlsx
+++ b/STUDY/1. FrontEnd/4. 학습스케쥴/학습스케쥴_이승현.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="출석현황" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FLEX레이아웃 외</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,74 @@
   </si>
   <si>
     <t>~108p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http통신 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - N진수게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38/93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~138p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리덕스 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 같은 숫자는 싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래머스 - 체육복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수형 프로그래밍 외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49/93</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +359,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -671,19 +738,32 @@
       <c r="A5" s="1">
         <v>44016</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
+      <c r="B5" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.81944444444444453</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>44017</v>
       </c>
+      <c r="B6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>44018</v>
       </c>
+      <c r="B7" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.83333333333333337</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -811,6 +891,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -821,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -936,7 +1019,7 @@
       </c>
       <c r="J3" s="8"/>
       <c r="L3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -944,65 +1027,122 @@
         <v>44015</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>44016</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>44017</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="H6" s="8"/>
       <c r="J6" s="8"/>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>44018</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="J7" s="8"/>
+      <c r="L7" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
@@ -1273,7 +1413,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
